--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanos\Desktop\University\UEA - Year 3\Computer Vision\cw2\ComputerVision_cw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanos\Desktop\University\UEA - Year 3\Computer Vision\ComputerVision_cw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E98743-A357-40FB-AB86-E3D07F08036F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F33D14-97B5-4B6E-BE68-D52BD71E1FC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{52F411B4-1557-4B25-B123-2F8735D6720C}"/>
+    <workbookView xWindow="2940" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{52F411B4-1557-4B25-B123-2F8735D6720C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="15">
   <si>
     <t>FEATURE</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>max sift</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C400091-F390-4341-B7AE-2E242F766A36}">
-  <dimension ref="A1:I617"/>
+  <dimension ref="A1:I618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +554,13 @@
       <c r="F5">
         <v>0.30599999999999999</v>
       </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <f>MAX(F2:F309)</f>
+        <v>0.49399999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6632,26 +6642,6 @@
         <v>0.38333299999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>11</v>
-      </c>
-      <c r="B310">
-        <v>10</v>
-      </c>
-      <c r="C310" t="s">
-        <v>7</v>
-      </c>
-      <c r="D310" t="s">
-        <v>8</v>
-      </c>
-      <c r="E310">
-        <v>10</v>
-      </c>
-      <c r="F310">
-        <v>0.32933299999999999</v>
-      </c>
-    </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>11</v>
@@ -6666,10 +6656,10 @@
         <v>8</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F311">
-        <v>0.33200000000000002</v>
+        <v>0.32933299999999999</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6686,10 +6676,10 @@
         <v>8</v>
       </c>
       <c r="E312">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F312">
-        <v>0.32400000000000001</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6706,10 +6696,10 @@
         <v>8</v>
       </c>
       <c r="E313">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F313">
-        <v>0.35466700000000001</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6726,10 +6716,10 @@
         <v>8</v>
       </c>
       <c r="E314">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F314">
-        <v>0.36533300000000002</v>
+        <v>0.35466700000000001</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6746,10 +6736,10 @@
         <v>8</v>
       </c>
       <c r="E315">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F315">
-        <v>0.35533300000000001</v>
+        <v>0.36533300000000002</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,10 +6756,10 @@
         <v>8</v>
       </c>
       <c r="E316">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F316">
-        <v>0.34399999999999997</v>
+        <v>0.35533300000000001</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6783,13 +6773,13 @@
         <v>7</v>
       </c>
       <c r="D317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E317">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F317">
-        <v>0.31933299999999998</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,10 +6796,10 @@
         <v>9</v>
       </c>
       <c r="E318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F318">
-        <v>0.338667</v>
+        <v>0.31933299999999998</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6826,10 +6816,10 @@
         <v>9</v>
       </c>
       <c r="E319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F319">
-        <v>0.349333</v>
+        <v>0.338667</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6846,10 +6836,10 @@
         <v>9</v>
       </c>
       <c r="E320">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F320">
-        <v>0.36</v>
+        <v>0.349333</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -6866,10 +6856,10 @@
         <v>9</v>
       </c>
       <c r="E321">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F321">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -6886,10 +6876,10 @@
         <v>9</v>
       </c>
       <c r="E322">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F322">
-        <v>0.405333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -6906,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="E323">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F323">
-        <v>0.404667</v>
+        <v>0.405333</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -6926,10 +6916,10 @@
         <v>9</v>
       </c>
       <c r="E324">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F324">
-        <v>0.409333</v>
+        <v>0.404667</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -6946,7 +6936,7 @@
         <v>9</v>
       </c>
       <c r="E325">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F325">
         <v>0.409333</v>
@@ -6966,10 +6956,10 @@
         <v>9</v>
       </c>
       <c r="E326">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F326">
-        <v>0.41399999999999998</v>
+        <v>0.409333</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -6986,10 +6976,10 @@
         <v>9</v>
       </c>
       <c r="E327">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F327">
-        <v>0.42</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,10 +6996,10 @@
         <v>9</v>
       </c>
       <c r="E328">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F328">
-        <v>0.41666700000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7026,10 +7016,10 @@
         <v>9</v>
       </c>
       <c r="E329">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F329">
-        <v>0.41533300000000001</v>
+        <v>0.41666700000000001</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -7046,10 +7036,10 @@
         <v>9</v>
       </c>
       <c r="E330">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F330">
-        <v>0.42666700000000002</v>
+        <v>0.41533300000000001</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7066,10 +7056,10 @@
         <v>9</v>
       </c>
       <c r="E331">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F331">
-        <v>0.41533300000000001</v>
+        <v>0.42666700000000002</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7080,16 +7070,16 @@
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D332" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E332">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F332">
-        <v>0.33800000000000002</v>
+        <v>0.41533300000000001</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -7106,10 +7096,10 @@
         <v>8</v>
       </c>
       <c r="E333">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F333">
-        <v>0.35933300000000001</v>
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7126,10 +7116,10 @@
         <v>8</v>
       </c>
       <c r="E334">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F334">
-        <v>0.35266700000000001</v>
+        <v>0.35933300000000001</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7146,10 +7136,10 @@
         <v>8</v>
       </c>
       <c r="E335">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F335">
-        <v>0.37</v>
+        <v>0.35266700000000001</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -7166,10 +7156,10 @@
         <v>8</v>
       </c>
       <c r="E336">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F336">
-        <v>0.32866699999999999</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7186,10 +7176,10 @@
         <v>8</v>
       </c>
       <c r="E337">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F337">
-        <v>0.34200000000000003</v>
+        <v>0.32866699999999999</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7206,10 +7196,10 @@
         <v>8</v>
       </c>
       <c r="E338">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F338">
-        <v>0.36666700000000002</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7223,13 +7213,13 @@
         <v>10</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F339">
-        <v>0.35066700000000001</v>
+        <v>0.36666700000000002</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7246,10 +7236,10 @@
         <v>9</v>
       </c>
       <c r="E340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F340">
-        <v>0.342667</v>
+        <v>0.35066700000000001</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -7266,10 +7256,10 @@
         <v>9</v>
       </c>
       <c r="E341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F341">
-        <v>0.37133300000000002</v>
+        <v>0.342667</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7286,10 +7276,10 @@
         <v>9</v>
       </c>
       <c r="E342">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F342">
-        <v>0.39400000000000002</v>
+        <v>0.37133300000000002</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -7306,10 +7296,10 @@
         <v>9</v>
       </c>
       <c r="E343">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F343">
-        <v>0.39066699999999999</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -7326,10 +7316,10 @@
         <v>9</v>
       </c>
       <c r="E344">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F344">
-        <v>0.39400000000000002</v>
+        <v>0.39066699999999999</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -7346,10 +7336,10 @@
         <v>9</v>
       </c>
       <c r="E345">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F345">
-        <v>0.404667</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -7366,10 +7356,10 @@
         <v>9</v>
       </c>
       <c r="E346">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F346">
-        <v>0.4</v>
+        <v>0.404667</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -7386,10 +7376,10 @@
         <v>9</v>
       </c>
       <c r="E347">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F347">
-        <v>0.39666699999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7406,10 +7396,10 @@
         <v>9</v>
       </c>
       <c r="E348">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F348">
-        <v>0.404667</v>
+        <v>0.39666699999999999</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -7426,10 +7416,10 @@
         <v>9</v>
       </c>
       <c r="E349">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F349">
-        <v>0.409333</v>
+        <v>0.404667</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -7446,10 +7436,10 @@
         <v>9</v>
       </c>
       <c r="E350">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F350">
-        <v>0.41799999999999998</v>
+        <v>0.409333</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7466,10 +7456,10 @@
         <v>9</v>
       </c>
       <c r="E351">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F351">
-        <v>0.405333</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -7486,10 +7476,10 @@
         <v>9</v>
       </c>
       <c r="E352">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F352">
-        <v>0.41799999999999998</v>
+        <v>0.405333</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -7506,10 +7496,10 @@
         <v>9</v>
       </c>
       <c r="E353">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F353">
-        <v>0.40799999999999997</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -7517,19 +7507,19 @@
         <v>11</v>
       </c>
       <c r="B354">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C354" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D354" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E354">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F354">
-        <v>0.438</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7546,10 +7536,10 @@
         <v>8</v>
       </c>
       <c r="E355">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F355">
-        <v>0.45466699999999999</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -7566,10 +7556,10 @@
         <v>8</v>
       </c>
       <c r="E356">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F356">
-        <v>0.44466699999999998</v>
+        <v>0.45466699999999999</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -7586,10 +7576,10 @@
         <v>8</v>
       </c>
       <c r="E357">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F357">
-        <v>0.45733299999999999</v>
+        <v>0.44466699999999998</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -7606,10 +7596,10 @@
         <v>8</v>
       </c>
       <c r="E358">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F358">
-        <v>0.44066699999999998</v>
+        <v>0.45733299999999999</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -7626,10 +7616,10 @@
         <v>8</v>
       </c>
       <c r="E359">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F359">
-        <v>0.42599999999999999</v>
+        <v>0.44066699999999998</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -7646,10 +7636,10 @@
         <v>8</v>
       </c>
       <c r="E360">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F360">
-        <v>0.42066700000000001</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -7663,13 +7653,13 @@
         <v>7</v>
       </c>
       <c r="D361" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F361">
-        <v>0.42466700000000002</v>
+        <v>0.42066700000000001</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -7686,10 +7676,10 @@
         <v>9</v>
       </c>
       <c r="E362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F362">
-        <v>0.411333</v>
+        <v>0.42466700000000002</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -7706,10 +7696,10 @@
         <v>9</v>
       </c>
       <c r="E363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F363">
-        <v>0.44133299999999998</v>
+        <v>0.411333</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -7726,10 +7716,10 @@
         <v>9</v>
       </c>
       <c r="E364">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F364">
-        <v>0.45333299999999999</v>
+        <v>0.44133299999999998</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -7746,10 +7736,10 @@
         <v>9</v>
       </c>
       <c r="E365">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F365">
-        <v>0.45066699999999998</v>
+        <v>0.45333299999999999</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -7766,10 +7756,10 @@
         <v>9</v>
       </c>
       <c r="E366">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F366">
-        <v>0.46200000000000002</v>
+        <v>0.45066699999999998</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -7786,10 +7776,10 @@
         <v>9</v>
       </c>
       <c r="E367">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F367">
-        <v>0.469333</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -7806,10 +7796,10 @@
         <v>9</v>
       </c>
       <c r="E368">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F368">
-        <v>0.47733300000000001</v>
+        <v>0.469333</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -7826,10 +7816,10 @@
         <v>9</v>
       </c>
       <c r="E369">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F369">
-        <v>0.48199999999999998</v>
+        <v>0.47733300000000001</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -7846,7 +7836,7 @@
         <v>9</v>
       </c>
       <c r="E370">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F370">
         <v>0.48199999999999998</v>
@@ -7866,10 +7856,10 @@
         <v>9</v>
       </c>
       <c r="E371">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F371">
-        <v>0.48399999999999999</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -7886,10 +7876,10 @@
         <v>9</v>
       </c>
       <c r="E372">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F372">
-        <v>0.47866700000000001</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -7906,10 +7896,10 @@
         <v>9</v>
       </c>
       <c r="E373">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F373">
-        <v>0.473333</v>
+        <v>0.47866700000000001</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -7926,10 +7916,10 @@
         <v>9</v>
       </c>
       <c r="E374">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F374">
-        <v>0.47733300000000001</v>
+        <v>0.473333</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -7946,10 +7936,10 @@
         <v>9</v>
       </c>
       <c r="E375">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F375">
-        <v>0.47466700000000001</v>
+        <v>0.47733300000000001</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -7960,16 +7950,16 @@
         <v>20</v>
       </c>
       <c r="C376" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D376" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E376">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F376">
-        <v>0.41933300000000001</v>
+        <v>0.47466700000000001</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -7986,10 +7976,10 @@
         <v>8</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F377">
-        <v>0.40600000000000003</v>
+        <v>0.41933300000000001</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -8006,10 +7996,10 @@
         <v>8</v>
       </c>
       <c r="E378">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F378">
-        <v>0.41199999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -8026,10 +8016,10 @@
         <v>8</v>
       </c>
       <c r="E379">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F379">
-        <v>0.45</v>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -8046,10 +8036,10 @@
         <v>8</v>
       </c>
       <c r="E380">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F380">
-        <v>0.41799999999999998</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -8066,10 +8056,10 @@
         <v>8</v>
       </c>
       <c r="E381">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F381">
-        <v>0.42266700000000001</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -8086,10 +8076,10 @@
         <v>8</v>
       </c>
       <c r="E382">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F382">
-        <v>0.42133300000000001</v>
+        <v>0.42266700000000001</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -8103,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="D383" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E383">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F383">
-        <v>0.39666699999999999</v>
+        <v>0.42133300000000001</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -8126,10 +8116,10 @@
         <v>9</v>
       </c>
       <c r="E384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F384">
-        <v>0.38733299999999998</v>
+        <v>0.39666699999999999</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -8146,10 +8136,10 @@
         <v>9</v>
       </c>
       <c r="E385">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F385">
-        <v>0.42799999999999999</v>
+        <v>0.38733299999999998</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -8166,10 +8156,10 @@
         <v>9</v>
       </c>
       <c r="E386">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F386">
-        <v>0.43666700000000003</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -8186,10 +8176,10 @@
         <v>9</v>
       </c>
       <c r="E387">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F387">
-        <v>0.44800000000000001</v>
+        <v>0.43666700000000003</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,10 +8196,10 @@
         <v>9</v>
       </c>
       <c r="E388">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F388">
-        <v>0.45866699999999999</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -8226,10 +8216,10 @@
         <v>9</v>
       </c>
       <c r="E389">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F389">
-        <v>0.464667</v>
+        <v>0.45866699999999999</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -8246,10 +8236,10 @@
         <v>9</v>
       </c>
       <c r="E390">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F390">
-        <v>0.469333</v>
+        <v>0.464667</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8266,10 +8256,10 @@
         <v>9</v>
       </c>
       <c r="E391">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F391">
-        <v>0.471333</v>
+        <v>0.469333</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -8286,10 +8276,10 @@
         <v>9</v>
       </c>
       <c r="E392">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F392">
-        <v>0.470667</v>
+        <v>0.471333</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -8306,10 +8296,10 @@
         <v>9</v>
       </c>
       <c r="E393">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F393">
-        <v>0.466667</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -8326,10 +8316,10 @@
         <v>9</v>
       </c>
       <c r="E394">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F394">
-        <v>0.47933300000000001</v>
+        <v>0.466667</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -8346,10 +8336,10 @@
         <v>9</v>
       </c>
       <c r="E395">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F395">
-        <v>0.47399999999999998</v>
+        <v>0.47933300000000001</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -8366,10 +8356,10 @@
         <v>9</v>
       </c>
       <c r="E396">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F396">
-        <v>0.470667</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -8386,10 +8376,10 @@
         <v>9</v>
       </c>
       <c r="E397">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F397">
-        <v>0.45933299999999999</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -8397,19 +8387,19 @@
         <v>11</v>
       </c>
       <c r="B398">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C398" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D398" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E398">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F398">
-        <v>0.43666700000000003</v>
+        <v>0.45933299999999999</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -8426,10 +8416,10 @@
         <v>8</v>
       </c>
       <c r="E399">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F399">
-        <v>0.48133300000000001</v>
+        <v>0.43666700000000003</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -8446,10 +8436,10 @@
         <v>8</v>
       </c>
       <c r="E400">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F400">
-        <v>0.47199999999999998</v>
+        <v>0.48133300000000001</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -8466,10 +8456,10 @@
         <v>8</v>
       </c>
       <c r="E401">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F401">
-        <v>0.43733300000000003</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -8486,10 +8476,10 @@
         <v>8</v>
       </c>
       <c r="E402">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F402">
-        <v>0.47799999999999998</v>
+        <v>0.43733300000000003</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -8506,10 +8496,10 @@
         <v>8</v>
       </c>
       <c r="E403">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F403">
-        <v>0.464667</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -8526,10 +8516,10 @@
         <v>8</v>
       </c>
       <c r="E404">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F404">
-        <v>0.470667</v>
+        <v>0.464667</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -8543,13 +8533,13 @@
         <v>7</v>
       </c>
       <c r="D405" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F405">
-        <v>0.42599999999999999</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,10 +8556,10 @@
         <v>9</v>
       </c>
       <c r="E406">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F406">
-        <v>0.41599999999999998</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -8586,10 +8576,10 @@
         <v>9</v>
       </c>
       <c r="E407">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F407">
-        <v>0.44</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,10 +8596,10 @@
         <v>9</v>
       </c>
       <c r="E408">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F408">
-        <v>0.46066699999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -8626,10 +8616,10 @@
         <v>9</v>
       </c>
       <c r="E409">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F409">
-        <v>0.472667</v>
+        <v>0.46066699999999999</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -8646,10 +8636,10 @@
         <v>9</v>
       </c>
       <c r="E410">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F410">
-        <v>0.47799999999999998</v>
+        <v>0.472667</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -8666,10 +8656,10 @@
         <v>9</v>
       </c>
       <c r="E411">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F411">
-        <v>0.47533300000000001</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -8686,10 +8676,10 @@
         <v>9</v>
       </c>
       <c r="E412">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F412">
-        <v>0.48466700000000001</v>
+        <v>0.47533300000000001</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -8706,10 +8696,10 @@
         <v>9</v>
       </c>
       <c r="E413">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F413">
-        <v>0.48</v>
+        <v>0.48466700000000001</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -8726,10 +8716,10 @@
         <v>9</v>
       </c>
       <c r="E414">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F414">
-        <v>0.47866700000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -8746,10 +8736,10 @@
         <v>9</v>
       </c>
       <c r="E415">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F415">
-        <v>0.47733300000000001</v>
+        <v>0.47866700000000001</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -8766,7 +8756,7 @@
         <v>9</v>
       </c>
       <c r="E416">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F416">
         <v>0.47733300000000001</v>
@@ -8786,10 +8776,10 @@
         <v>9</v>
       </c>
       <c r="E417">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F417">
-        <v>0.472667</v>
+        <v>0.47733300000000001</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -8806,10 +8796,10 @@
         <v>9</v>
       </c>
       <c r="E418">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F418">
-        <v>0.470667</v>
+        <v>0.472667</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -8826,10 +8816,10 @@
         <v>9</v>
       </c>
       <c r="E419">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F419">
-        <v>0.47199999999999998</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -8840,16 +8830,16 @@
         <v>30</v>
       </c>
       <c r="C420" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D420" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E420">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F420">
-        <v>0.473333</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -8866,10 +8856,10 @@
         <v>8</v>
       </c>
       <c r="E421">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F421">
-        <v>0.46400000000000002</v>
+        <v>0.473333</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -8886,10 +8876,10 @@
         <v>8</v>
       </c>
       <c r="E422">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F422">
-        <v>0.468667</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -8906,10 +8896,10 @@
         <v>8</v>
       </c>
       <c r="E423">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F423">
-        <v>0.49066700000000002</v>
+        <v>0.468667</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -8926,10 +8916,10 @@
         <v>8</v>
       </c>
       <c r="E424">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F424">
-        <v>0.471333</v>
+        <v>0.49066700000000002</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -8946,10 +8936,10 @@
         <v>8</v>
       </c>
       <c r="E425">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F425">
-        <v>0.409333</v>
+        <v>0.471333</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -8966,10 +8956,10 @@
         <v>8</v>
       </c>
       <c r="E426">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F426">
-        <v>0.45600000000000002</v>
+        <v>0.409333</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -8983,13 +8973,13 @@
         <v>10</v>
       </c>
       <c r="D427" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E427">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F427">
-        <v>0.43133300000000002</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -9006,10 +8996,10 @@
         <v>9</v>
       </c>
       <c r="E428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F428">
-        <v>0.41666700000000001</v>
+        <v>0.43133300000000002</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -9026,10 +9016,10 @@
         <v>9</v>
       </c>
       <c r="E429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F429">
-        <v>0.42933300000000002</v>
+        <v>0.41666700000000001</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -9046,10 +9036,10 @@
         <v>9</v>
       </c>
       <c r="E430">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F430">
-        <v>0.45600000000000002</v>
+        <v>0.42933300000000002</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -9066,10 +9056,10 @@
         <v>9</v>
       </c>
       <c r="E431">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F431">
-        <v>0.46400000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -9086,10 +9076,10 @@
         <v>9</v>
       </c>
       <c r="E432">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F432">
-        <v>0.46133299999999999</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -9106,10 +9096,10 @@
         <v>9</v>
       </c>
       <c r="E433">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F433">
-        <v>0.47599999999999998</v>
+        <v>0.46133299999999999</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -9126,10 +9116,10 @@
         <v>9</v>
       </c>
       <c r="E434">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F434">
-        <v>0.466667</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -9146,10 +9136,10 @@
         <v>9</v>
       </c>
       <c r="E435">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F435">
-        <v>0.47199999999999998</v>
+        <v>0.466667</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -9166,10 +9156,10 @@
         <v>9</v>
       </c>
       <c r="E436">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F436">
-        <v>0.473333</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -9186,10 +9176,10 @@
         <v>9</v>
       </c>
       <c r="E437">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F437">
-        <v>0.470667</v>
+        <v>0.473333</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -9206,10 +9196,10 @@
         <v>9</v>
       </c>
       <c r="E438">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F438">
-        <v>0.47866700000000001</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -9226,10 +9216,10 @@
         <v>9</v>
       </c>
       <c r="E439">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F439">
-        <v>0.48</v>
+        <v>0.47866700000000001</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -9246,10 +9236,10 @@
         <v>9</v>
       </c>
       <c r="E440">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F440">
-        <v>0.48133300000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -9266,10 +9256,10 @@
         <v>9</v>
       </c>
       <c r="E441">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F441">
-        <v>0.47933300000000001</v>
+        <v>0.48133300000000001</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -9277,19 +9267,19 @@
         <v>11</v>
       </c>
       <c r="B442">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C442" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D442" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E442">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F442">
-        <v>0.51</v>
+        <v>0.47933300000000001</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -9306,10 +9296,10 @@
         <v>8</v>
       </c>
       <c r="E443">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F443">
-        <v>0.50733300000000003</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -9326,10 +9316,10 @@
         <v>8</v>
       </c>
       <c r="E444">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F444">
-        <v>0.496</v>
+        <v>0.50733300000000003</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -9346,10 +9336,10 @@
         <v>8</v>
       </c>
       <c r="E445">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F445">
-        <v>0.49733300000000003</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -9366,10 +9356,10 @@
         <v>8</v>
       </c>
       <c r="E446">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F446">
-        <v>0.51066699999999998</v>
+        <v>0.49733300000000003</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -9386,10 +9376,10 @@
         <v>8</v>
       </c>
       <c r="E447">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F447">
-        <v>0.51600000000000001</v>
+        <v>0.51066699999999998</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -9406,10 +9396,10 @@
         <v>8</v>
       </c>
       <c r="E448">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F448">
-        <v>0.52066699999999999</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -9423,13 +9413,13 @@
         <v>7</v>
       </c>
       <c r="D449" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F449">
-        <v>0.45333299999999999</v>
+        <v>0.52066699999999999</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -9446,10 +9436,10 @@
         <v>9</v>
       </c>
       <c r="E450">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F450">
-        <v>0.43066700000000002</v>
+        <v>0.45333299999999999</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -9466,10 +9456,10 @@
         <v>9</v>
       </c>
       <c r="E451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F451">
-        <v>0.45200000000000001</v>
+        <v>0.43066700000000002</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -9486,10 +9476,10 @@
         <v>9</v>
       </c>
       <c r="E452">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F452">
-        <v>0.46</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -9506,10 +9496,10 @@
         <v>9</v>
       </c>
       <c r="E453">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F453">
-        <v>0.467333</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -9526,10 +9516,10 @@
         <v>9</v>
       </c>
       <c r="E454">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F454">
-        <v>0.46600000000000003</v>
+        <v>0.467333</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -9546,10 +9536,10 @@
         <v>9</v>
       </c>
       <c r="E455">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F455">
-        <v>0.47599999999999998</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -9566,10 +9556,10 @@
         <v>9</v>
       </c>
       <c r="E456">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F456">
-        <v>0.47199999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -9586,10 +9576,10 @@
         <v>9</v>
       </c>
       <c r="E457">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F457">
-        <v>0.470667</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -9606,10 +9596,10 @@
         <v>9</v>
       </c>
       <c r="E458">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F458">
-        <v>0.47399999999999998</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -9626,10 +9616,10 @@
         <v>9</v>
       </c>
       <c r="E459">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F459">
-        <v>0.47799999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -9646,10 +9636,10 @@
         <v>9</v>
       </c>
       <c r="E460">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F460">
-        <v>0.47666700000000001</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -9666,10 +9656,10 @@
         <v>9</v>
       </c>
       <c r="E461">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F461">
-        <v>0.470667</v>
+        <v>0.47666700000000001</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -9686,10 +9676,10 @@
         <v>9</v>
       </c>
       <c r="E462">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F462">
-        <v>0.469333</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -9706,10 +9696,10 @@
         <v>9</v>
       </c>
       <c r="E463">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F463">
-        <v>0.47733300000000001</v>
+        <v>0.469333</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -9720,16 +9710,16 @@
         <v>50</v>
       </c>
       <c r="C464" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D464" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E464">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F464">
-        <v>0.51066699999999998</v>
+        <v>0.47733300000000001</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -9746,10 +9736,10 @@
         <v>8</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F465">
-        <v>0.51</v>
+        <v>0.51066699999999998</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -9766,10 +9756,10 @@
         <v>8</v>
       </c>
       <c r="E466">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F466">
-        <v>0.48199999999999998</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -9786,10 +9776,10 @@
         <v>8</v>
       </c>
       <c r="E467">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F467">
-        <v>0.47799999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -9806,10 +9796,10 @@
         <v>8</v>
       </c>
       <c r="E468">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F468">
-        <v>0.504</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -9826,10 +9816,10 @@
         <v>8</v>
       </c>
       <c r="E469">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F469">
-        <v>0.49466700000000002</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -9846,10 +9836,10 @@
         <v>8</v>
       </c>
       <c r="E470">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F470">
-        <v>0.48333300000000001</v>
+        <v>0.49466700000000002</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -9863,13 +9853,13 @@
         <v>10</v>
       </c>
       <c r="D471" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E471">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F471">
-        <v>0.43333300000000002</v>
+        <v>0.48333300000000001</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -9886,10 +9876,10 @@
         <v>9</v>
       </c>
       <c r="E472">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F472">
-        <v>0.42266700000000001</v>
+        <v>0.43333300000000002</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -9906,10 +9896,10 @@
         <v>9</v>
       </c>
       <c r="E473">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F473">
-        <v>0.44266699999999998</v>
+        <v>0.42266700000000001</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -9926,10 +9916,10 @@
         <v>9</v>
       </c>
       <c r="E474">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F474">
-        <v>0.466667</v>
+        <v>0.44266699999999998</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -9946,10 +9936,10 @@
         <v>9</v>
       </c>
       <c r="E475">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F475">
-        <v>0.46800000000000003</v>
+        <v>0.466667</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -9966,10 +9956,10 @@
         <v>9</v>
       </c>
       <c r="E476">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F476">
-        <v>0.473333</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -9986,10 +9976,10 @@
         <v>9</v>
       </c>
       <c r="E477">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F477">
-        <v>0.48266700000000001</v>
+        <v>0.473333</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -10006,10 +9996,10 @@
         <v>9</v>
       </c>
       <c r="E478">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F478">
-        <v>0.47466700000000001</v>
+        <v>0.48266700000000001</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -10026,7 +10016,7 @@
         <v>9</v>
       </c>
       <c r="E479">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F479">
         <v>0.47466700000000001</v>
@@ -10046,10 +10036,10 @@
         <v>9</v>
       </c>
       <c r="E480">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F480">
-        <v>0.468667</v>
+        <v>0.47466700000000001</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -10066,10 +10056,10 @@
         <v>9</v>
       </c>
       <c r="E481">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F481">
-        <v>0.46800000000000003</v>
+        <v>0.468667</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -10086,10 +10076,10 @@
         <v>9</v>
       </c>
       <c r="E482">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F482">
-        <v>0.47399999999999998</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -10106,10 +10096,10 @@
         <v>9</v>
       </c>
       <c r="E483">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F483">
-        <v>0.469333</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -10126,10 +10116,10 @@
         <v>9</v>
       </c>
       <c r="E484">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F484">
-        <v>0.470667</v>
+        <v>0.469333</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -10146,10 +10136,10 @@
         <v>9</v>
       </c>
       <c r="E485">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F485">
-        <v>0.468667</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -10157,19 +10147,19 @@
         <v>11</v>
       </c>
       <c r="B486">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C486" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D486" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E486">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F486">
-        <v>0.52800000000000002</v>
+        <v>0.468667</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -10186,10 +10176,10 @@
         <v>8</v>
       </c>
       <c r="E487">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F487">
-        <v>0.53533299999999995</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -10206,10 +10196,10 @@
         <v>8</v>
       </c>
       <c r="E488">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F488">
-        <v>0.52200000000000002</v>
+        <v>0.53533299999999995</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -10226,10 +10216,10 @@
         <v>8</v>
       </c>
       <c r="E489">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F489">
-        <v>0.528667</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -10246,10 +10236,10 @@
         <v>8</v>
       </c>
       <c r="E490">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F490">
-        <v>0.53600000000000003</v>
+        <v>0.528667</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -10266,10 +10256,10 @@
         <v>8</v>
       </c>
       <c r="E491">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F491">
-        <v>0.532667</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -10286,10 +10276,10 @@
         <v>8</v>
       </c>
       <c r="E492">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F492">
-        <v>0.51933300000000004</v>
+        <v>0.532667</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -10303,13 +10293,13 @@
         <v>7</v>
       </c>
       <c r="D493" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E493">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F493">
-        <v>0.44933299999999998</v>
+        <v>0.51933300000000004</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -10326,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="E494">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F494">
-        <v>0.42733300000000002</v>
+        <v>0.44933299999999998</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -10346,10 +10336,10 @@
         <v>9</v>
       </c>
       <c r="E495">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F495">
-        <v>0.44800000000000001</v>
+        <v>0.42733300000000002</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -10366,10 +10356,10 @@
         <v>9</v>
       </c>
       <c r="E496">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F496">
-        <v>0.45933299999999999</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -10386,10 +10376,10 @@
         <v>9</v>
       </c>
       <c r="E497">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F497">
-        <v>0.46133299999999999</v>
+        <v>0.45933299999999999</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -10406,10 +10396,10 @@
         <v>9</v>
       </c>
       <c r="E498">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F498">
-        <v>0.47533300000000001</v>
+        <v>0.46133299999999999</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -10426,10 +10416,10 @@
         <v>9</v>
       </c>
       <c r="E499">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F499">
-        <v>0.470667</v>
+        <v>0.47533300000000001</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -10446,10 +10436,10 @@
         <v>9</v>
       </c>
       <c r="E500">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F500">
-        <v>0.46400000000000002</v>
+        <v>0.470667</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -10466,10 +10456,10 @@
         <v>9</v>
       </c>
       <c r="E501">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F501">
-        <v>0.466667</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -10486,10 +10476,10 @@
         <v>9</v>
       </c>
       <c r="E502">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F502">
-        <v>0.46400000000000002</v>
+        <v>0.466667</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -10506,10 +10496,10 @@
         <v>9</v>
       </c>
       <c r="E503">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F503">
-        <v>0.46</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -10526,10 +10516,10 @@
         <v>9</v>
       </c>
       <c r="E504">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F504">
-        <v>0.45666699999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -10546,10 +10536,10 @@
         <v>9</v>
       </c>
       <c r="E505">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F505">
-        <v>0.46</v>
+        <v>0.45666699999999999</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -10566,10 +10556,10 @@
         <v>9</v>
       </c>
       <c r="E506">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F506">
-        <v>0.45533299999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -10586,10 +10576,10 @@
         <v>9</v>
       </c>
       <c r="E507">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F507">
-        <v>0.45266699999999999</v>
+        <v>0.45533299999999999</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -10600,16 +10590,16 @@
         <v>100</v>
       </c>
       <c r="C508" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D508" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E508">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F508">
-        <v>0.55666700000000002</v>
+        <v>0.45266699999999999</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -10626,10 +10616,10 @@
         <v>8</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F509">
-        <v>0.52200000000000002</v>
+        <v>0.55666700000000002</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -10646,10 +10636,10 @@
         <v>8</v>
       </c>
       <c r="E510">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F510">
-        <v>0.51800000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -10666,10 +10656,10 @@
         <v>8</v>
       </c>
       <c r="E511">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F511">
-        <v>0.52800000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -10686,10 +10676,10 @@
         <v>8</v>
       </c>
       <c r="E512">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F512">
-        <v>0.53600000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -10706,10 +10696,10 @@
         <v>8</v>
       </c>
       <c r="E513">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F513">
-        <v>0.56466700000000003</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -10726,10 +10716,10 @@
         <v>8</v>
       </c>
       <c r="E514">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F514">
-        <v>0.51933300000000004</v>
+        <v>0.56466700000000003</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -10743,13 +10733,13 @@
         <v>10</v>
       </c>
       <c r="D515" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E515">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F515">
-        <v>0.46600000000000003</v>
+        <v>0.51933300000000004</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -10766,10 +10756,10 @@
         <v>9</v>
       </c>
       <c r="E516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F516">
-        <v>0.44400000000000001</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -10786,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="E517">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F517">
-        <v>0.466667</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -10806,10 +10796,10 @@
         <v>9</v>
       </c>
       <c r="E518">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F518">
-        <v>0.49133300000000002</v>
+        <v>0.466667</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -10826,10 +10816,10 @@
         <v>9</v>
       </c>
       <c r="E519">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F519">
-        <v>0.49266700000000002</v>
+        <v>0.49133300000000002</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -10846,10 +10836,10 @@
         <v>9</v>
       </c>
       <c r="E520">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F520">
-        <v>0.47799999999999998</v>
+        <v>0.49266700000000002</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -10866,10 +10856,10 @@
         <v>9</v>
       </c>
       <c r="E521">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F521">
-        <v>0.48066700000000001</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -10886,10 +10876,10 @@
         <v>9</v>
       </c>
       <c r="E522">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F522">
-        <v>0.47399999999999998</v>
+        <v>0.48066700000000001</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -10906,10 +10896,10 @@
         <v>9</v>
       </c>
       <c r="E523">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F523">
-        <v>0.46333299999999999</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -10926,10 +10916,10 @@
         <v>9</v>
       </c>
       <c r="E524">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F524">
-        <v>0.46400000000000002</v>
+        <v>0.46333299999999999</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -10946,7 +10936,7 @@
         <v>9</v>
       </c>
       <c r="E525">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F525">
         <v>0.46400000000000002</v>
@@ -10966,10 +10956,10 @@
         <v>9</v>
       </c>
       <c r="E526">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F526">
-        <v>0.467333</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -10986,10 +10976,10 @@
         <v>9</v>
       </c>
       <c r="E527">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F527">
-        <v>0.465333</v>
+        <v>0.467333</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -11006,10 +10996,10 @@
         <v>9</v>
       </c>
       <c r="E528">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F528">
-        <v>0.473333</v>
+        <v>0.465333</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -11026,10 +11016,10 @@
         <v>9</v>
       </c>
       <c r="E529">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F529">
-        <v>0.469333</v>
+        <v>0.473333</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -11037,19 +11027,19 @@
         <v>11</v>
       </c>
       <c r="B530">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C530" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D530" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E530">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F530">
-        <v>0.56933299999999998</v>
+        <v>0.469333</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -11066,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F531">
-        <v>0.56466700000000003</v>
+        <v>0.56933299999999998</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -11086,10 +11076,10 @@
         <v>8</v>
       </c>
       <c r="E532">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F532">
-        <v>0.54133299999999995</v>
+        <v>0.56466700000000003</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -11106,10 +11096,10 @@
         <v>8</v>
       </c>
       <c r="E533">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F533">
-        <v>0.52333300000000005</v>
+        <v>0.54133299999999995</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -11126,10 +11116,10 @@
         <v>8</v>
       </c>
       <c r="E534">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F534">
-        <v>0.53</v>
+        <v>0.52333300000000005</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -11146,10 +11136,10 @@
         <v>8</v>
       </c>
       <c r="E535">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F535">
-        <v>0.58266700000000005</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -11166,10 +11156,10 @@
         <v>8</v>
       </c>
       <c r="E536">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F536">
-        <v>0.57666700000000004</v>
+        <v>0.58266700000000005</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -11183,13 +11173,13 @@
         <v>7</v>
       </c>
       <c r="D537" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E537">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F537">
-        <v>0.44466699999999998</v>
+        <v>0.57666700000000004</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -11206,10 +11196,10 @@
         <v>9</v>
       </c>
       <c r="E538">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F538">
-        <v>0.42</v>
+        <v>0.44466699999999998</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -11226,10 +11216,10 @@
         <v>9</v>
       </c>
       <c r="E539">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F539">
-        <v>0.438</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -11246,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="E540">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F540">
-        <v>0.43</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -11266,10 +11256,10 @@
         <v>9</v>
       </c>
       <c r="E541">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F541">
-        <v>0.43933299999999997</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -11286,10 +11276,10 @@
         <v>9</v>
       </c>
       <c r="E542">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F542">
-        <v>0.43733300000000003</v>
+        <v>0.43933299999999997</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -11306,10 +11296,10 @@
         <v>9</v>
       </c>
       <c r="E543">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F543">
-        <v>0.43866699999999997</v>
+        <v>0.43733300000000003</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -11326,10 +11316,10 @@
         <v>9</v>
       </c>
       <c r="E544">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F544">
-        <v>0.44266699999999998</v>
+        <v>0.43866699999999997</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -11346,10 +11336,10 @@
         <v>9</v>
       </c>
       <c r="E545">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F545">
-        <v>0.438</v>
+        <v>0.44266699999999998</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -11366,7 +11356,7 @@
         <v>9</v>
       </c>
       <c r="E546">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F546">
         <v>0.438</v>
@@ -11386,10 +11376,10 @@
         <v>9</v>
       </c>
       <c r="E547">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F547">
-        <v>0.44066699999999998</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -11406,10 +11396,10 @@
         <v>9</v>
       </c>
       <c r="E548">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F548">
-        <v>0.438</v>
+        <v>0.44066699999999998</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -11426,10 +11416,10 @@
         <v>9</v>
       </c>
       <c r="E549">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F549">
-        <v>0.43466700000000003</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -11446,10 +11436,10 @@
         <v>9</v>
       </c>
       <c r="E550">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F550">
-        <v>0.42799999999999999</v>
+        <v>0.43466700000000003</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -11466,10 +11456,10 @@
         <v>9</v>
       </c>
       <c r="E551">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F551">
-        <v>0.42599999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -11480,16 +11470,16 @@
         <v>200</v>
       </c>
       <c r="C552" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D552" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E552">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F552">
-        <v>0.56599999999999995</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -11506,10 +11496,10 @@
         <v>8</v>
       </c>
       <c r="E553">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F553">
-        <v>0.55333299999999996</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -11526,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="E554">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F554">
-        <v>0.57799999999999996</v>
+        <v>0.55333299999999996</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -11546,10 +11536,10 @@
         <v>8</v>
       </c>
       <c r="E555">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F555">
-        <v>0.54933299999999996</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -11566,10 +11556,10 @@
         <v>8</v>
       </c>
       <c r="E556">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F556">
-        <v>0.56399999999999995</v>
+        <v>0.54933299999999996</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -11586,10 +11576,10 @@
         <v>8</v>
       </c>
       <c r="E557">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F557">
-        <v>0.53200000000000003</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -11606,10 +11596,10 @@
         <v>8</v>
       </c>
       <c r="E558">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F558">
-        <v>0.57266700000000004</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -11623,13 +11613,13 @@
         <v>10</v>
       </c>
       <c r="D559" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E559">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F559">
-        <v>0.43466700000000003</v>
+        <v>0.57266700000000004</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -11646,10 +11636,10 @@
         <v>9</v>
       </c>
       <c r="E560">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F560">
-        <v>0.43</v>
+        <v>0.43466700000000003</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -11666,10 +11656,10 @@
         <v>9</v>
       </c>
       <c r="E561">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F561">
-        <v>0.43133300000000002</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -11686,10 +11676,10 @@
         <v>9</v>
       </c>
       <c r="E562">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F562">
-        <v>0.432</v>
+        <v>0.43133300000000002</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -11706,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="E563">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F563">
-        <v>0.42133300000000001</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -11726,10 +11716,10 @@
         <v>9</v>
       </c>
       <c r="E564">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F564">
-        <v>0.43466700000000003</v>
+        <v>0.42133300000000001</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -11746,10 +11736,10 @@
         <v>9</v>
       </c>
       <c r="E565">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F565">
-        <v>0.432</v>
+        <v>0.43466700000000003</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -11766,10 +11756,10 @@
         <v>9</v>
       </c>
       <c r="E566">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F566">
-        <v>0.43666700000000003</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -11786,10 +11776,10 @@
         <v>9</v>
       </c>
       <c r="E567">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F567">
-        <v>0.44333299999999998</v>
+        <v>0.43666700000000003</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -11806,10 +11796,10 @@
         <v>9</v>
       </c>
       <c r="E568">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F568">
-        <v>0.438</v>
+        <v>0.44333299999999998</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -11826,7 +11816,7 @@
         <v>9</v>
       </c>
       <c r="E569">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F569">
         <v>0.438</v>
@@ -11846,10 +11836,10 @@
         <v>9</v>
       </c>
       <c r="E570">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F570">
-        <v>0.43666700000000003</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -11866,10 +11856,10 @@
         <v>9</v>
       </c>
       <c r="E571">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F571">
-        <v>0.43133300000000002</v>
+        <v>0.43666700000000003</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -11886,10 +11876,10 @@
         <v>9</v>
       </c>
       <c r="E572">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F572">
-        <v>0.42799999999999999</v>
+        <v>0.43133300000000002</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
@@ -11906,10 +11896,10 @@
         <v>9</v>
       </c>
       <c r="E573">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F573">
-        <v>0.42199999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -11917,19 +11907,19 @@
         <v>11</v>
       </c>
       <c r="B574">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C574" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D574" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E574">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F574">
-        <v>0.60133300000000001</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -11946,10 +11936,10 @@
         <v>8</v>
       </c>
       <c r="E575">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F575">
-        <v>0.59599999999999997</v>
+        <v>0.60133300000000001</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
@@ -11966,10 +11956,10 @@
         <v>8</v>
       </c>
       <c r="E576">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F576">
-        <v>0.58599999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -11986,7 +11976,7 @@
         <v>8</v>
       </c>
       <c r="E577">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F577">
         <v>0.58599999999999997</v>
@@ -12006,10 +11996,10 @@
         <v>8</v>
       </c>
       <c r="E578">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F578">
-        <v>0.61399999999999999</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -12026,10 +12016,10 @@
         <v>8</v>
       </c>
       <c r="E579">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F579">
-        <v>0.58466700000000005</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -12046,10 +12036,10 @@
         <v>8</v>
       </c>
       <c r="E580">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F580">
-        <v>0.58599999999999997</v>
+        <v>0.58466700000000005</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -12063,13 +12053,13 @@
         <v>7</v>
       </c>
       <c r="D581" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E581">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F581">
-        <v>0.43266700000000002</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -12086,10 +12076,10 @@
         <v>9</v>
       </c>
       <c r="E582">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F582">
-        <v>0.43066700000000002</v>
+        <v>0.43266700000000002</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -12106,10 +12096,10 @@
         <v>9</v>
       </c>
       <c r="E583">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F583">
-        <v>0.41533300000000001</v>
+        <v>0.43066700000000002</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
@@ -12126,10 +12116,10 @@
         <v>9</v>
       </c>
       <c r="E584">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F584">
-        <v>0.42866700000000002</v>
+        <v>0.41533300000000001</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -12146,10 +12136,10 @@
         <v>9</v>
       </c>
       <c r="E585">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F585">
-        <v>0.42199999999999999</v>
+        <v>0.42866700000000002</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -12166,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="E586">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F586">
-        <v>0.41533300000000001</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
@@ -12186,10 +12176,10 @@
         <v>9</v>
       </c>
       <c r="E587">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F587">
-        <v>0.40799999999999997</v>
+        <v>0.41533300000000001</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -12206,10 +12196,10 @@
         <v>9</v>
       </c>
       <c r="E588">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F588">
-        <v>0.40400000000000003</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -12226,10 +12216,10 @@
         <v>9</v>
       </c>
       <c r="E589">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F589">
-        <v>0.40600000000000003</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -12246,10 +12236,10 @@
         <v>9</v>
       </c>
       <c r="E590">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F590">
-        <v>0.41</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -12266,10 +12256,10 @@
         <v>9</v>
       </c>
       <c r="E591">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F591">
-        <v>0.405333</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
@@ -12286,10 +12276,10 @@
         <v>9</v>
       </c>
       <c r="E592">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F592">
-        <v>0.4</v>
+        <v>0.405333</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
@@ -12306,10 +12296,10 @@
         <v>9</v>
       </c>
       <c r="E593">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F593">
-        <v>0.39466699999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
@@ -12326,10 +12316,10 @@
         <v>9</v>
       </c>
       <c r="E594">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F594">
-        <v>0.39</v>
+        <v>0.39466699999999999</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
@@ -12346,10 +12336,10 @@
         <v>9</v>
       </c>
       <c r="E595">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F595">
-        <v>0.38533299999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -12360,16 +12350,16 @@
         <v>400</v>
       </c>
       <c r="C596" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D596" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E596">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F596">
-        <v>0.58066700000000004</v>
+        <v>0.38533299999999998</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -12386,10 +12376,10 @@
         <v>8</v>
       </c>
       <c r="E597">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F597">
-        <v>0.58666700000000005</v>
+        <v>0.58066700000000004</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -12406,10 +12396,10 @@
         <v>8</v>
       </c>
       <c r="E598">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F598">
-        <v>0.57333299999999998</v>
+        <v>0.58666700000000005</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
@@ -12426,10 +12416,10 @@
         <v>8</v>
       </c>
       <c r="E599">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F599">
-        <v>0.58733299999999999</v>
+        <v>0.57333299999999998</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
@@ -12446,10 +12436,10 @@
         <v>8</v>
       </c>
       <c r="E600">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F600">
-        <v>0.56866700000000003</v>
+        <v>0.58733299999999999</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -12466,7 +12456,7 @@
         <v>8</v>
       </c>
       <c r="E601">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F601">
         <v>0.56866700000000003</v>
@@ -12486,10 +12476,10 @@
         <v>8</v>
       </c>
       <c r="E602">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F602">
-        <v>0.55666700000000002</v>
+        <v>0.56866700000000003</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
@@ -12503,13 +12493,13 @@
         <v>10</v>
       </c>
       <c r="D603" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E603">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F603">
-        <v>0.42266700000000001</v>
+        <v>0.55666700000000002</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
@@ -12526,10 +12516,10 @@
         <v>9</v>
       </c>
       <c r="E604">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F604">
-        <v>0.42066700000000001</v>
+        <v>0.42266700000000001</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -12546,10 +12536,10 @@
         <v>9</v>
       </c>
       <c r="E605">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F605">
-        <v>0.411333</v>
+        <v>0.42066700000000001</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
@@ -12566,10 +12556,10 @@
         <v>9</v>
       </c>
       <c r="E606">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F606">
-        <v>0.41399999999999998</v>
+        <v>0.411333</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -12586,10 +12576,10 @@
         <v>9</v>
       </c>
       <c r="E607">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F607">
-        <v>0.4</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
@@ -12606,10 +12596,10 @@
         <v>9</v>
       </c>
       <c r="E608">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F608">
-        <v>0.40600000000000003</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -12626,10 +12616,10 @@
         <v>9</v>
       </c>
       <c r="E609">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F609">
-        <v>0.39733299999999999</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -12646,10 +12636,10 @@
         <v>9</v>
       </c>
       <c r="E610">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F610">
-        <v>0.39866699999999999</v>
+        <v>0.39733299999999999</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -12666,10 +12656,10 @@
         <v>9</v>
       </c>
       <c r="E611">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F611">
-        <v>0.39133299999999999</v>
+        <v>0.39866699999999999</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -12686,10 +12676,10 @@
         <v>9</v>
       </c>
       <c r="E612">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F612">
-        <v>0.39733299999999999</v>
+        <v>0.39133299999999999</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -12706,10 +12696,10 @@
         <v>9</v>
       </c>
       <c r="E613">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F613">
-        <v>0.38533299999999998</v>
+        <v>0.39733299999999999</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -12726,10 +12716,10 @@
         <v>9</v>
       </c>
       <c r="E614">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F614">
-        <v>0.38333299999999998</v>
+        <v>0.38533299999999998</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -12746,10 +12736,10 @@
         <v>9</v>
       </c>
       <c r="E615">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F615">
-        <v>0.37866699999999998</v>
+        <v>0.38333299999999998</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -12766,10 +12756,10 @@
         <v>9</v>
       </c>
       <c r="E616">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F616">
-        <v>0.37733299999999997</v>
+        <v>0.37866699999999998</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -12786,9 +12776,29 @@
         <v>9</v>
       </c>
       <c r="E617">
+        <v>14</v>
+      </c>
+      <c r="F617">
+        <v>0.37733299999999997</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>11</v>
+      </c>
+      <c r="B618">
+        <v>400</v>
+      </c>
+      <c r="C618" t="s">
+        <v>10</v>
+      </c>
+      <c r="D618" t="s">
+        <v>9</v>
+      </c>
+      <c r="E618">
         <v>15</v>
       </c>
-      <c r="F617">
+      <c r="F618">
         <v>0.36933300000000002</v>
       </c>
     </row>
